--- a/Progression Flow Chart/FlowChart.xlsx
+++ b/Progression Flow Chart/FlowChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="66">
   <si>
     <t>Install Program</t>
   </si>
@@ -180,10 +180,40 @@
     <t>Team Requested to be on</t>
   </si>
   <si>
-    <t>DataBase-Coach-Request</t>
-  </si>
-  <si>
     <t>Coach- Request Info-Email-Handshake</t>
+  </si>
+  <si>
+    <t>Coach Interface</t>
+  </si>
+  <si>
+    <t>Weather Checker</t>
+  </si>
+  <si>
+    <t>Database utilizing 5 dig zip</t>
+  </si>
+  <si>
+    <t>Weather Check Button--&gt;</t>
+  </si>
+  <si>
+    <t>Submit button--&gt;</t>
+  </si>
+  <si>
+    <t>Stores User data in database</t>
+  </si>
+  <si>
+    <t>Sends email to coach</t>
+  </si>
+  <si>
+    <t>Database of individual deleted</t>
+  </si>
+  <si>
+    <t>Coach rec email-approves team selection</t>
+  </si>
+  <si>
+    <t>Coach assigns position</t>
+  </si>
+  <si>
+    <t>Email sent back when approved and assigned</t>
   </si>
 </sst>
 </file>
@@ -207,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +259,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -322,12 +370,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,6 +378,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -632,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,8 +716,8 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3">
@@ -671,10 +726,38 @@
       <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
@@ -688,7 +771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:26">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -697,44 +780,66 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:26">
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:26">
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:26">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:26">
       <c r="B9" s="4"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:26">
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -743,7 +848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:26">
       <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
@@ -752,7 +857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:26">
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
@@ -761,7 +866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:26">
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
@@ -770,7 +875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:26">
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
@@ -779,7 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:26">
       <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
@@ -789,7 +894,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:26">
       <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
@@ -799,7 +904,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:26">
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -809,7 +914,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:26">
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
@@ -819,7 +924,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:26">
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
@@ -829,7 +934,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:26">
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -839,7 +944,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:26">
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
@@ -849,44 +954,88 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:26">
       <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="C23" s="5"/>
+    <row r="23" spans="1:26">
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" s="17" t="s">
+      <c r="E23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="C26" s="19" t="s">
+    <row r="26" spans="1:26">
+      <c r="C26" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="2"/>
@@ -902,8 +1051,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="C27" s="19" t="s">
+    <row r="27" spans="1:26">
+      <c r="C27" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="2"/>
@@ -919,8 +1068,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="C28" s="19" t="s">
+    <row r="28" spans="1:26">
+      <c r="C28" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="2"/>
@@ -936,8 +1085,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="C29" s="19" t="s">
+    <row r="29" spans="1:26">
+      <c r="C29" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="2"/>
@@ -953,8 +1102,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="C30" s="19" t="s">
+    <row r="30" spans="1:26">
+      <c r="C30" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2"/>
@@ -970,8 +1119,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="C31" s="19"/>
+    <row r="31" spans="1:26">
+      <c r="C31" s="15"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="1"/>
@@ -983,8 +1132,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="C32" s="19"/>
+    <row r="32" spans="1:26">
+      <c r="C32" s="15"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1"/>
@@ -997,7 +1146,7 @@
       </c>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="16"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1"/>
@@ -1010,7 +1159,7 @@
       </c>
     </row>
     <row r="34" spans="3:9">
-      <c r="C34" s="19"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="1"/>
@@ -1023,7 +1172,7 @@
       </c>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="19"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="1"/>
@@ -1036,7 +1185,7 @@
       </c>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="19"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="1"/>
@@ -1049,7 +1198,7 @@
       </c>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="19"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="1"/>
@@ -1064,11 +1213,11 @@
     <row r="38" spans="3:9">
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="3:9">
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="2"/>
@@ -1145,7 +1294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="7:9">
+    <row r="49" spans="1:36">
       <c r="G49" s="5" t="s">
         <v>34</v>
       </c>
@@ -1154,7 +1303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="7:9">
+    <row r="50" spans="1:36">
       <c r="G50" s="5" t="s">
         <v>35</v>
       </c>
@@ -1163,7 +1312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="7:9">
+    <row r="51" spans="1:36">
       <c r="G51" s="5" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="7:9">
+    <row r="52" spans="1:36">
       <c r="G52" s="5" t="s">
         <v>37</v>
       </c>
@@ -1181,19 +1330,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="7:9">
+    <row r="53" spans="1:36">
       <c r="H53" s="2"/>
       <c r="I53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="7:9">
-      <c r="G55" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36">
+      <c r="G55" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="7:9">
+    <row r="56" spans="1:36">
       <c r="G56" s="8" t="s">
         <v>41</v>
       </c>
@@ -1202,7 +1351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="7:9">
+    <row r="57" spans="1:36">
       <c r="G57" s="5" t="s">
         <v>42</v>
       </c>
@@ -1211,7 +1360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="7:9">
+    <row r="58" spans="1:36">
       <c r="G58" s="8" t="s">
         <v>43</v>
       </c>
@@ -1220,12 +1369,392 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="7:9">
+    <row r="59" spans="1:36">
       <c r="G59" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36">
+      <c r="G60" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:36">
+      <c r="G61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="A63" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="G63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:36">
+      <c r="C64" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9">
+      <c r="C66" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9">
+      <c r="G69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="G70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9">
+      <c r="G71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="G72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="G73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="G74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="G75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="H76" s="2"/>
+      <c r="I76" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="G78" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="G79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="G80" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9">
+      <c r="G81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9">
+      <c r="G82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9">
+      <c r="G83" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9">
+      <c r="G84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9">
+      <c r="G85" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9">
+      <c r="G86" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9">
+      <c r="G87" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9">
+      <c r="G88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9">
+      <c r="G89" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9">
+      <c r="G90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9">
+      <c r="H91" s="2"/>
+      <c r="I91" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9">
+      <c r="G93" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="7:9">
+      <c r="G94" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9">
+      <c r="G95" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9">
+      <c r="G96" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9">
+      <c r="G97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Progression Flow Chart/FlowChart.xlsx
+++ b/Progression Flow Chart/FlowChart.xlsx
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
